--- a/variable-stiffness-mechanism/PRODEP/Formato Informe Técnico Suresh.xlsx
+++ b/variable-stiffness-mechanism/PRODEP/Formato Informe Técnico Suresh.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>Facultad o Escuela</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Programa Educativo al que pertenece</t>
   </si>
   <si>
-    <t>ING. RICARDO H. MUÑOZ VÁZQUEZ</t>
-  </si>
-  <si>
     <t>Plan de trabajo básico del profesor</t>
   </si>
   <si>
@@ -146,12 +143,6 @@
     <t>X</t>
   </si>
   <si>
-    <t xml:space="preserve">Control automático </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistemas de Potencia 1 </t>
-  </si>
-  <si>
     <t>CAMARILLO ROSALES JESUS ANTONIO</t>
   </si>
   <si>
@@ -186,6 +177,52 @@
   </si>
   <si>
     <t>Analysis of metabolic activity of ureolytic bacteria in an enriched and unenriched concrete pore solution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ser parte del Núcleo Académico Básico (NAB) de masteria en energías renovables </t>
+  </si>
+  <si>
+    <t>Participación en la Semana de Ingennieria del Facultad (desde 24/10/2016 al 28/10/2016)</t>
+  </si>
+  <si>
+    <t>Control automático (1er semiestre del 2018)</t>
+  </si>
+  <si>
+    <t>Sistemas de Potencia 1 (1er semiestre del 2018)</t>
+  </si>
+  <si>
+    <t>DR. LUIS GUTIERREZ FLORES</t>
+  </si>
+  <si>
+    <t>DR. SURESH KUMAR GADI</t>
+  </si>
+  <si>
+    <t>ING. CESAR ULISES TAPIA SCHUMM</t>
+  </si>
+  <si>
+    <t>C. Miriam Anguiano Morales</t>
+  </si>
+  <si>
+    <t>Bioleaching of precious metals present in electronic waste</t>
+  </si>
+  <si>
+    <t>Analysis of metabolic activity of ureolytic bacteria in an enriched and unenriched concrete pore solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+C. Maria José Castro Alonso</t>
+  </si>
+  <si>
+    <t>LICENCIATURA EN  CIENCIAS BIOLOGICAS</t>
+  </si>
+  <si>
+    <t>Developing applications to teach identification problems in control theory</t>
+  </si>
+  <si>
+    <t>Reuniones de academia de eléctrica del facultad</t>
+  </si>
+  <si>
+    <t>Reuniones de academia de electrónica del facultad</t>
   </si>
 </sst>
 </file>
@@ -366,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -407,26 +444,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,54 +507,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -792,10 +830,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:C60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -811,40 +849,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="A2" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -864,8 +902,8 @@
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>37</v>
+      <c r="B6" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="4" t="s">
@@ -876,8 +914,8 @@
       <c r="G6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="47" t="s">
-        <v>38</v>
+      <c r="H6" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -896,8 +934,8 @@
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="47" t="s">
-        <v>39</v>
+      <c r="B8" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -926,34 +964,34 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="34"/>
+      <c r="F13" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="28" t="s">
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="5" t="s">
         <v>4</v>
       </c>
@@ -969,18 +1007,18 @@
       <c r="H14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
-        <v>41</v>
+      <c r="A15" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="6">
         <v>1</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11">
@@ -998,15 +1036,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="48"/>
+      <c r="A16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="24"/>
       <c r="C16" s="6">
         <v>3</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11">
@@ -1019,97 +1057,102 @@
         <v>1</v>
       </c>
       <c r="I16" s="11">
-        <f t="shared" ref="I16:I17" si="0">SUM(F16:H16)</f>
+        <f t="shared" ref="I16" si="0">SUM(F16:H16)</f>
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="17" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="17">
-        <f>SUM(I15:I17)</f>
+      <c r="I17" s="17">
+        <f>SUM(I15:I16)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="28" t="s">
-        <v>6</v>
-      </c>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="28"/>
+      <c r="A23" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
-        <v>43</v>
+      <c r="A24" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="11"/>
@@ -1120,15 +1163,15 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>44</v>
+      <c r="A25" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="11"/>
@@ -1139,15 +1182,15 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>45</v>
+      <c r="A26" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="11"/>
@@ -1158,15 +1201,15 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
-        <v>46</v>
+      <c r="A27" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="11"/>
@@ -1177,15 +1220,15 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
-        <v>47</v>
+      <c r="A28" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="11"/>
@@ -1196,15 +1239,15 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
-        <v>48</v>
+      <c r="A29" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="11"/>
@@ -1215,15 +1258,15 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="37"/>
+      <c r="C30" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="D30" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="11"/>
@@ -1234,15 +1277,15 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="27"/>
+      <c r="A31" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="37"/>
       <c r="C31" s="15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="11"/>
@@ -1253,284 +1296,322 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="11"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="6">
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H33" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="49">
+        <v>42705</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H34" s="13" t="s">
+    <row r="39" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="49">
+        <v>42705</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="28" t="s">
+      <c r="I40" s="13"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="33"/>
+      <c r="F44" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="32"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="28"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I43" s="13"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="34"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="28"/>
-    </row>
-    <row r="49" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="29" t="s">
-        <v>54</v>
-      </c>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
-      <c r="D49" s="29" t="s">
-        <v>53</v>
-      </c>
+      <c r="D49" s="21"/>
       <c r="E49" s="22"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="29"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="11"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
-      <c r="D50" s="29"/>
+      <c r="D50" s="21"/>
       <c r="E50" s="22"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="46"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29"/>
       <c r="I50" s="11"/>
     </row>
-    <row r="51" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="29"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="11"/>
-    </row>
-    <row r="52" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="29"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="11"/>
-    </row>
-    <row r="53" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="29"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="11"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="14"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="14"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I54" s="13"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I55" s="14"/>
-    </row>
-    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I56" s="14"/>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="48"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I57" s="14"/>
-    </row>
-    <row r="58" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="33"/>
-      <c r="B58" s="34"/>
+      <c r="A57" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="22"/>
       <c r="C58" s="22"/>
-      <c r="D58" s="33"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="23" t="s">
-        <v>6</v>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="11">
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
+      <c r="A59" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="22"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="24"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
+      <c r="A60" s="21" t="s">
+        <v>66</v>
+      </c>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
       <c r="D60" s="22"/>
@@ -1538,7 +1619,9 @@
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
-      <c r="I60" s="11"/>
+      <c r="I60" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="22"/>
@@ -1552,170 +1635,136 @@
       <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="11"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="11"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="11"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H65" s="13" t="s">
+      <c r="H62" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I65" s="13"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="36"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="38" t="s">
+      <c r="I62" s="13"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="G70" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B74" s="38"/>
-      <c r="C74" s="38"/>
-      <c r="G74" s="39" t="s">
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="G71" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="37" t="s">
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="37"/>
-      <c r="C79" s="37"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="80">
+    <mergeCell ref="G55:H56"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="A47:C48"/>
-    <mergeCell ref="D47:E48"/>
-    <mergeCell ref="F47:H48"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D58:F59"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="A58:C59"/>
-    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="F36:F37"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="A13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A36:B37"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="G58:H59"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D55:F56"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A71:C71"/>
     <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A55:C56"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="G70:I70"/>
     <mergeCell ref="D61:F61"/>
-    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A44:C45"/>
+    <mergeCell ref="D44:E45"/>
+    <mergeCell ref="F44:H45"/>
+    <mergeCell ref="C36:E37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H36:H37"/>
     <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="72" fitToHeight="2" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="71" fitToHeight="2" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;7F-PROMEP-93 - Rev 01</oddFooter>
   </headerFooter>
